--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_COA_ComptrollerObjectProfile_Regression_01.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_COA_ComptrollerObjectProfile_Regression_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77409B5-69D0-4B6B-99D3-8392F203F0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F807BDF1-8852-4615-9CE7-39F5A2ED9862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{700E182A-B159-4886-9E6C-1C79495AA709}"/>
+    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" xr2:uid="{700E182A-B159-4886-9E6C-1C79495AA709}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793D2F31-9FDE-492E-B924-B76931AB77A9}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
